--- a/input/wagenpark.xlsx
+++ b/input/wagenpark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Jakolien\ZET-compass\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\ZET-kompas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B704261-A3C8-4A85-B640-668830278A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B5FB48A-2865-42DF-B3F2-A5BD0824FC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28700" windowHeight="15440" activeTab="2" xr2:uid="{C165CDAC-9E51-4565-BE69-9FA531234DD9}"/>
+    <workbookView xWindow="1308" yWindow="1068" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{C165CDAC-9E51-4565-BE69-9FA531234DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg ZET kompas" sheetId="3" r:id="rId1"/>
@@ -757,33 +757,27 @@
     <t>ONBEKEND</t>
   </si>
   <si>
-    <t>84BKZ9</t>
-  </si>
-  <si>
-    <t>96BPJ7</t>
-  </si>
-  <si>
-    <t>VT469T</t>
-  </si>
-  <si>
     <t>voorbeeld</t>
+  </si>
+  <si>
+    <t>BESTEL_GROOT</t>
+  </si>
+  <si>
+    <t>BAKWAGEN</t>
+  </si>
+  <si>
+    <t>TREKKER_OPLEGGER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -1153,143 +1147,140 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1615,92 +1606,92 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.296875" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:11" ht="106" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" ht="106.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" ht="78.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="77.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-    </row>
-    <row r="6" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1723,167 +1714,167 @@
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="35.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:3" s="40" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:3" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="41"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="B4" s="40"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="38"/>
-    </row>
-    <row r="10" spans="1:3" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
+      <c r="B9" s="37"/>
+    </row>
+    <row r="10" spans="1:3" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="41"/>
-    </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
+      <c r="B10" s="40"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="42" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:3" s="41" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="41"/>
-    </row>
-    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
+      <c r="B13" s="40"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <v>90000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:3" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:3" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-    </row>
-    <row r="18" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+    </row>
+    <row r="18" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:3" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="41"/>
-    </row>
-    <row r="21" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
+      <c r="B20" s="40"/>
+    </row>
+    <row r="21" spans="1:3" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1895,150 +1886,150 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4937C37-5C49-44C2-AD32-D4D7AED4CF18}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S352"/>
+  <dimension ref="A1:S348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-    <col min="3" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" customWidth="1"/>
-    <col min="10" max="10" width="14.09765625" customWidth="1"/>
-    <col min="11" max="11" width="17.8984375" customWidth="1"/>
-    <col min="12" max="12" width="15.296875" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.09765625" customWidth="1"/>
-    <col min="16" max="17" width="17.69921875" customWidth="1"/>
-    <col min="18" max="18" width="19.69921875" customWidth="1"/>
-    <col min="19" max="19" width="15.8984375" customWidth="1"/>
-    <col min="20" max="20" width="8.8984375" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="16" max="17" width="17.6640625" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="77.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>6</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>2019</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="44">
         <v>0</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="45">
         <v>20000</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="44">
         <v>200</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="44">
         <v>220</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="45">
+      <c r="L2" s="44">
         <v>7</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="46">
         <v>8</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="46">
         <v>3</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="53"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>118</v>
+      <c r="A3" t="s">
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -2046,8 +2037,8 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="13">
-        <v>2018</v>
+      <c r="E3" s="12">
+        <v>2021</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -2055,41 +2046,38 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <v>80000</v>
+      <c r="H3">
+        <f>220*78</f>
+        <v>17160</v>
       </c>
       <c r="I3">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="J3">
         <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>7</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
+      <c r="M3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
       <c r="P3" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="53"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -2097,8 +2085,8 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="13">
-        <v>2017</v>
+      <c r="E4" s="12">
+        <v>2014</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -2107,40 +2095,37 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>20000</v>
+        <f>220*350</f>
+        <v>77000</v>
       </c>
       <c r="I4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J4">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K4" t="s">
         <v>55</v>
       </c>
       <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="53"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -2148,8 +2133,8 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" s="13">
-        <v>2016</v>
+      <c r="E5" s="12">
+        <v>2021</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -2158,1108 +2143,1077 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15000</v>
+        <f>220*350</f>
+        <v>77000</v>
       </c>
       <c r="I5">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K5" t="s">
         <v>55</v>
       </c>
       <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E6" s="13"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="Q6" s="53"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E7" s="13"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="Q7" s="53"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E8" s="13"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="Q8" s="53"/>
+      <c r="Q8" s="52"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E9" s="13"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="Q9" s="53"/>
+      <c r="Q9" s="52"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="Q10" s="53"/>
+      <c r="Q10" s="52"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="Q11" s="53"/>
+      <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q12" s="53"/>
+      <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q13" s="53"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q14" s="53"/>
+      <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q15" s="53"/>
+      <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q16" s="53"/>
+      <c r="Q16" s="52"/>
     </row>
     <row r="17" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q17" s="53"/>
+      <c r="Q17" s="52"/>
     </row>
     <row r="18" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q18" s="53"/>
+      <c r="Q18" s="52"/>
     </row>
     <row r="19" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q19" s="53"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q20" s="53"/>
+      <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q21" s="53"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q22" s="53"/>
+      <c r="Q22" s="52"/>
     </row>
     <row r="23" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q23" s="53"/>
+      <c r="Q23" s="52"/>
     </row>
     <row r="24" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q24" s="53"/>
+      <c r="Q24" s="52"/>
     </row>
     <row r="25" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q25" s="53"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q26" s="53"/>
+      <c r="Q26" s="52"/>
     </row>
     <row r="27" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q27" s="53"/>
+      <c r="Q27" s="52"/>
     </row>
     <row r="28" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q28" s="53"/>
+      <c r="Q28" s="52"/>
     </row>
     <row r="29" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q29" s="53"/>
+      <c r="Q29" s="52"/>
     </row>
     <row r="30" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q30" s="53"/>
+      <c r="Q30" s="52"/>
     </row>
     <row r="31" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q31" s="53"/>
+      <c r="Q31" s="52"/>
     </row>
     <row r="32" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q32" s="53"/>
+      <c r="Q32" s="52"/>
     </row>
     <row r="33" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q33" s="53"/>
+      <c r="Q33" s="52"/>
     </row>
     <row r="34" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q34" s="53"/>
+      <c r="Q34" s="52"/>
     </row>
     <row r="35" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q35" s="53"/>
+      <c r="Q35" s="52"/>
     </row>
     <row r="36" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q36" s="53"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q37" s="53"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q38" s="53"/>
+      <c r="Q38" s="52"/>
     </row>
     <row r="39" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q39" s="53"/>
+      <c r="Q39" s="52"/>
     </row>
     <row r="40" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q40" s="53"/>
+      <c r="Q40" s="52"/>
     </row>
     <row r="41" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q41" s="53"/>
+      <c r="Q41" s="52"/>
     </row>
     <row r="42" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q42" s="53"/>
+      <c r="Q42" s="52"/>
     </row>
     <row r="43" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q43" s="53"/>
+      <c r="Q43" s="52"/>
     </row>
     <row r="44" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q44" s="53"/>
+      <c r="Q44" s="52"/>
     </row>
     <row r="45" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q45" s="53"/>
+      <c r="Q45" s="52"/>
     </row>
     <row r="46" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q46" s="53"/>
+      <c r="Q46" s="52"/>
     </row>
     <row r="47" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q47" s="53"/>
+      <c r="Q47" s="52"/>
     </row>
     <row r="48" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q48" s="53"/>
+      <c r="Q48" s="52"/>
     </row>
     <row r="49" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q49" s="53"/>
+      <c r="Q49" s="52"/>
     </row>
     <row r="50" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q50" s="53"/>
+      <c r="Q50" s="52"/>
     </row>
     <row r="51" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q51" s="53"/>
+      <c r="Q51" s="52"/>
     </row>
     <row r="52" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q52" s="53"/>
+      <c r="Q52" s="52"/>
     </row>
     <row r="53" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q53" s="53"/>
+      <c r="Q53" s="52"/>
     </row>
     <row r="54" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q54" s="53"/>
+      <c r="Q54" s="52"/>
     </row>
     <row r="55" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q55" s="53"/>
+      <c r="Q55" s="52"/>
     </row>
     <row r="56" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q56" s="53"/>
+      <c r="Q56" s="52"/>
     </row>
     <row r="57" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q57" s="53"/>
+      <c r="Q57" s="52"/>
     </row>
     <row r="58" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q58" s="53"/>
+      <c r="Q58" s="52"/>
     </row>
     <row r="59" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q59" s="53"/>
+      <c r="Q59" s="52"/>
     </row>
     <row r="60" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q60" s="53"/>
+      <c r="Q60" s="52"/>
     </row>
     <row r="61" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q61" s="53"/>
+      <c r="Q61" s="52"/>
     </row>
     <row r="62" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q62" s="53"/>
+      <c r="Q62" s="52"/>
     </row>
     <row r="63" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q63" s="53"/>
+      <c r="Q63" s="52"/>
     </row>
     <row r="64" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q64" s="53"/>
+      <c r="Q64" s="52"/>
     </row>
     <row r="65" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q65" s="53"/>
+      <c r="Q65" s="52"/>
     </row>
     <row r="66" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q66" s="53"/>
+      <c r="Q66" s="52"/>
     </row>
     <row r="67" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q67" s="53"/>
+      <c r="Q67" s="52"/>
     </row>
     <row r="68" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q68" s="53"/>
+      <c r="Q68" s="52"/>
     </row>
     <row r="69" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q69" s="53"/>
+      <c r="Q69" s="52"/>
     </row>
     <row r="70" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q70" s="53"/>
+      <c r="Q70" s="52"/>
     </row>
     <row r="71" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q71" s="53"/>
+      <c r="Q71" s="52"/>
     </row>
     <row r="72" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q72" s="53"/>
+      <c r="Q72" s="52"/>
     </row>
     <row r="73" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q73" s="53"/>
+      <c r="Q73" s="52"/>
     </row>
     <row r="74" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q74" s="53"/>
+      <c r="Q74" s="52"/>
     </row>
     <row r="75" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q75" s="53"/>
+      <c r="Q75" s="52"/>
     </row>
     <row r="76" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q76" s="53"/>
+      <c r="Q76" s="52"/>
     </row>
     <row r="77" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q77" s="53"/>
+      <c r="Q77" s="52"/>
     </row>
     <row r="78" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q78" s="53"/>
+      <c r="Q78" s="52"/>
     </row>
     <row r="79" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q79" s="53"/>
+      <c r="Q79" s="52"/>
     </row>
     <row r="80" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q80" s="53"/>
+      <c r="Q80" s="52"/>
     </row>
     <row r="81" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q81" s="53"/>
+      <c r="Q81" s="52"/>
     </row>
     <row r="82" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q82" s="53"/>
+      <c r="Q82" s="52"/>
     </row>
     <row r="83" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q83" s="53"/>
+      <c r="Q83" s="52"/>
     </row>
     <row r="84" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q84" s="53"/>
+      <c r="Q84" s="52"/>
     </row>
     <row r="85" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q85" s="53"/>
+      <c r="Q85" s="52"/>
     </row>
     <row r="86" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q86" s="53"/>
+      <c r="Q86" s="52"/>
     </row>
     <row r="87" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q87" s="53"/>
+      <c r="Q87" s="52"/>
     </row>
     <row r="88" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q88" s="53"/>
+      <c r="Q88" s="52"/>
     </row>
     <row r="89" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q89" s="53"/>
+      <c r="Q89" s="52"/>
     </row>
     <row r="90" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q90" s="53"/>
+      <c r="Q90" s="52"/>
     </row>
     <row r="91" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q91" s="53"/>
+      <c r="Q91" s="52"/>
     </row>
     <row r="92" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q92" s="53"/>
+      <c r="Q92" s="52"/>
     </row>
     <row r="93" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q93" s="53"/>
+      <c r="Q93" s="52"/>
     </row>
     <row r="94" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q94" s="53"/>
+      <c r="Q94" s="52"/>
     </row>
     <row r="95" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q95" s="53"/>
+      <c r="Q95" s="52"/>
     </row>
     <row r="96" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q96" s="53"/>
+      <c r="Q96" s="52"/>
     </row>
     <row r="97" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q97" s="53"/>
+      <c r="Q97" s="52"/>
     </row>
     <row r="98" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q98" s="53"/>
+      <c r="Q98" s="52"/>
     </row>
     <row r="99" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q99" s="53"/>
+      <c r="Q99" s="52"/>
     </row>
     <row r="100" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q100" s="53"/>
+      <c r="Q100" s="52"/>
     </row>
     <row r="101" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q101" s="53"/>
+      <c r="Q101" s="52"/>
     </row>
     <row r="102" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q102" s="53"/>
+      <c r="Q102" s="52"/>
     </row>
     <row r="103" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q103" s="53"/>
+      <c r="Q103" s="52"/>
     </row>
     <row r="104" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q104" s="53"/>
+      <c r="Q104" s="52"/>
     </row>
     <row r="105" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q105" s="53"/>
+      <c r="Q105" s="52"/>
     </row>
     <row r="106" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q106" s="53"/>
+      <c r="Q106" s="52"/>
     </row>
     <row r="107" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q107" s="53"/>
+      <c r="Q107" s="52"/>
     </row>
     <row r="108" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q108" s="53"/>
+      <c r="Q108" s="52"/>
     </row>
     <row r="109" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q109" s="53"/>
+      <c r="Q109" s="52"/>
     </row>
     <row r="110" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q110" s="53"/>
+      <c r="Q110" s="52"/>
     </row>
     <row r="111" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q111" s="53"/>
+      <c r="Q111" s="52"/>
     </row>
     <row r="112" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q112" s="53"/>
+      <c r="Q112" s="52"/>
     </row>
     <row r="113" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q113" s="53"/>
+      <c r="Q113" s="52"/>
     </row>
     <row r="114" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q114" s="53"/>
+      <c r="Q114" s="52"/>
     </row>
     <row r="115" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q115" s="53"/>
+      <c r="Q115" s="52"/>
     </row>
     <row r="116" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q116" s="53"/>
+      <c r="Q116" s="52"/>
     </row>
     <row r="117" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q117" s="53"/>
+      <c r="Q117" s="52"/>
     </row>
     <row r="118" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q118" s="53"/>
+      <c r="Q118" s="52"/>
     </row>
     <row r="119" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q119" s="53"/>
+      <c r="Q119" s="52"/>
     </row>
     <row r="120" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q120" s="53"/>
+      <c r="Q120" s="52"/>
     </row>
     <row r="121" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q121" s="53"/>
+      <c r="Q121" s="52"/>
     </row>
     <row r="122" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q122" s="53"/>
+      <c r="Q122" s="52"/>
     </row>
     <row r="123" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q123" s="53"/>
+      <c r="Q123" s="52"/>
     </row>
     <row r="124" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q124" s="53"/>
+      <c r="Q124" s="52"/>
     </row>
     <row r="125" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q125" s="53"/>
+      <c r="Q125" s="52"/>
     </row>
     <row r="126" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q126" s="53"/>
+      <c r="Q126" s="52"/>
     </row>
     <row r="127" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q127" s="53"/>
+      <c r="Q127" s="52"/>
     </row>
     <row r="128" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q128" s="53"/>
+      <c r="Q128" s="52"/>
     </row>
     <row r="129" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q129" s="53"/>
+      <c r="Q129" s="52"/>
     </row>
     <row r="130" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q130" s="53"/>
+      <c r="Q130" s="52"/>
     </row>
     <row r="131" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q131" s="53"/>
+      <c r="Q131" s="52"/>
     </row>
     <row r="132" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q132" s="53"/>
+      <c r="Q132" s="52"/>
     </row>
     <row r="133" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q133" s="53"/>
+      <c r="Q133" s="52"/>
     </row>
     <row r="134" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q134" s="53"/>
+      <c r="Q134" s="52"/>
     </row>
     <row r="135" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q135" s="53"/>
+      <c r="Q135" s="52"/>
     </row>
     <row r="136" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q136" s="53"/>
+      <c r="Q136" s="52"/>
     </row>
     <row r="137" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q137" s="53"/>
+      <c r="Q137" s="52"/>
     </row>
     <row r="138" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q138" s="53"/>
+      <c r="Q138" s="52"/>
     </row>
     <row r="139" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q139" s="53"/>
+      <c r="Q139" s="52"/>
     </row>
     <row r="140" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q140" s="53"/>
+      <c r="Q140" s="52"/>
     </row>
     <row r="141" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q141" s="53"/>
+      <c r="Q141" s="52"/>
     </row>
     <row r="142" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q142" s="53"/>
+      <c r="Q142" s="52"/>
     </row>
     <row r="143" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q143" s="53"/>
+      <c r="Q143" s="52"/>
     </row>
     <row r="144" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q144" s="53"/>
+      <c r="Q144" s="52"/>
     </row>
     <row r="145" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q145" s="53"/>
+      <c r="Q145" s="52"/>
     </row>
     <row r="146" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q146" s="53"/>
+      <c r="Q146" s="52"/>
     </row>
     <row r="147" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q147" s="53"/>
+      <c r="Q147" s="52"/>
     </row>
     <row r="148" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q148" s="53"/>
+      <c r="Q148" s="52"/>
     </row>
     <row r="149" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q149" s="53"/>
+      <c r="Q149" s="52"/>
     </row>
     <row r="150" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q150" s="53"/>
+      <c r="Q150" s="52"/>
     </row>
     <row r="151" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q151" s="53"/>
+      <c r="Q151" s="52"/>
     </row>
     <row r="152" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q152" s="53"/>
+      <c r="Q152" s="52"/>
     </row>
     <row r="153" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q153" s="53"/>
+      <c r="Q153" s="52"/>
     </row>
     <row r="154" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q154" s="53"/>
+      <c r="Q154" s="52"/>
     </row>
     <row r="155" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q155" s="53"/>
+      <c r="Q155" s="52"/>
     </row>
     <row r="156" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q156" s="53"/>
+      <c r="Q156" s="52"/>
     </row>
     <row r="157" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q157" s="53"/>
+      <c r="Q157" s="52"/>
     </row>
     <row r="158" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q158" s="53"/>
+      <c r="Q158" s="52"/>
     </row>
     <row r="159" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q159" s="53"/>
+      <c r="Q159" s="52"/>
     </row>
     <row r="160" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q160" s="53"/>
+      <c r="Q160" s="52"/>
     </row>
     <row r="161" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q161" s="53"/>
+      <c r="Q161" s="52"/>
     </row>
     <row r="162" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q162" s="53"/>
+      <c r="Q162" s="52"/>
     </row>
     <row r="163" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q163" s="53"/>
+      <c r="Q163" s="52"/>
     </row>
     <row r="164" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q164" s="53"/>
+      <c r="Q164" s="52"/>
     </row>
     <row r="165" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q165" s="53"/>
+      <c r="Q165" s="52"/>
     </row>
     <row r="166" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q166" s="53"/>
+      <c r="Q166" s="52"/>
     </row>
     <row r="167" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q167" s="53"/>
+      <c r="Q167" s="52"/>
     </row>
     <row r="168" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q168" s="53"/>
+      <c r="Q168" s="52"/>
     </row>
     <row r="169" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q169" s="53"/>
+      <c r="Q169" s="52"/>
     </row>
     <row r="170" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q170" s="53"/>
+      <c r="Q170" s="52"/>
     </row>
     <row r="171" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q171" s="53"/>
+      <c r="Q171" s="52"/>
     </row>
     <row r="172" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q172" s="53"/>
+      <c r="Q172" s="52"/>
     </row>
     <row r="173" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q173" s="53"/>
+      <c r="Q173" s="52"/>
     </row>
     <row r="174" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q174" s="53"/>
+      <c r="Q174" s="52"/>
     </row>
     <row r="175" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q175" s="53"/>
+      <c r="Q175" s="52"/>
     </row>
     <row r="176" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q176" s="53"/>
+      <c r="Q176" s="52"/>
     </row>
     <row r="177" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q177" s="53"/>
+      <c r="Q177" s="52"/>
     </row>
     <row r="178" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q178" s="53"/>
+      <c r="Q178" s="52"/>
     </row>
     <row r="179" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q179" s="53"/>
+      <c r="Q179" s="52"/>
     </row>
     <row r="180" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q180" s="53"/>
+      <c r="Q180" s="52"/>
     </row>
     <row r="181" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q181" s="53"/>
+      <c r="Q181" s="52"/>
     </row>
     <row r="182" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q182" s="53"/>
+      <c r="Q182" s="52"/>
     </row>
     <row r="183" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q183" s="53"/>
+      <c r="Q183" s="52"/>
     </row>
     <row r="184" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q184" s="53"/>
+      <c r="Q184" s="52"/>
     </row>
     <row r="185" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q185" s="53"/>
+      <c r="Q185" s="52"/>
     </row>
     <row r="186" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q186" s="53"/>
+      <c r="Q186" s="52"/>
     </row>
     <row r="187" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q187" s="53"/>
+      <c r="Q187" s="52"/>
     </row>
     <row r="188" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q188" s="53"/>
+      <c r="Q188" s="52"/>
     </row>
     <row r="189" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q189" s="53"/>
+      <c r="Q189" s="52"/>
     </row>
     <row r="190" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q190" s="53"/>
+      <c r="Q190" s="52"/>
     </row>
     <row r="191" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q191" s="53"/>
+      <c r="Q191" s="52"/>
     </row>
     <row r="192" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q192" s="53"/>
+      <c r="Q192" s="52"/>
     </row>
     <row r="193" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q193" s="53"/>
+      <c r="Q193" s="52"/>
     </row>
     <row r="194" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q194" s="53"/>
+      <c r="Q194" s="52"/>
     </row>
     <row r="195" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q195" s="53"/>
+      <c r="Q195" s="52"/>
     </row>
     <row r="196" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q196" s="53"/>
+      <c r="Q196" s="52"/>
     </row>
     <row r="197" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q197" s="53"/>
+      <c r="Q197" s="52"/>
     </row>
     <row r="198" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q198" s="53"/>
+      <c r="Q198" s="52"/>
     </row>
     <row r="199" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q199" s="53"/>
+      <c r="Q199" s="52"/>
     </row>
     <row r="200" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q200" s="53"/>
+      <c r="Q200" s="52"/>
     </row>
     <row r="201" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q201" s="53"/>
+      <c r="Q201" s="52"/>
     </row>
     <row r="202" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q202" s="53"/>
+      <c r="Q202" s="52"/>
     </row>
     <row r="203" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q203" s="53"/>
+      <c r="Q203" s="52"/>
     </row>
     <row r="204" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q204" s="53"/>
+      <c r="Q204" s="52"/>
     </row>
     <row r="205" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q205" s="53"/>
+      <c r="Q205" s="52"/>
     </row>
     <row r="206" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q206" s="53"/>
+      <c r="Q206" s="52"/>
     </row>
     <row r="207" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q207" s="53"/>
+      <c r="Q207" s="52"/>
     </row>
     <row r="208" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q208" s="53"/>
+      <c r="Q208" s="52"/>
     </row>
     <row r="209" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q209" s="53"/>
+      <c r="Q209" s="52"/>
     </row>
     <row r="210" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q210" s="53"/>
+      <c r="Q210" s="52"/>
     </row>
     <row r="211" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q211" s="53"/>
+      <c r="Q211" s="52"/>
     </row>
     <row r="212" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q212" s="53"/>
+      <c r="Q212" s="52"/>
     </row>
     <row r="213" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q213" s="53"/>
+      <c r="Q213" s="52"/>
     </row>
     <row r="214" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q214" s="53"/>
+      <c r="Q214" s="52"/>
     </row>
     <row r="215" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q215" s="53"/>
+      <c r="Q215" s="52"/>
     </row>
     <row r="216" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q216" s="53"/>
+      <c r="Q216" s="52"/>
     </row>
     <row r="217" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q217" s="53"/>
+      <c r="Q217" s="52"/>
     </row>
     <row r="218" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q218" s="53"/>
+      <c r="Q218" s="52"/>
     </row>
     <row r="219" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q219" s="53"/>
+      <c r="Q219" s="52"/>
     </row>
     <row r="220" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q220" s="53"/>
+      <c r="Q220" s="52"/>
     </row>
     <row r="221" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q221" s="53"/>
+      <c r="Q221" s="52"/>
     </row>
     <row r="222" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q222" s="53"/>
+      <c r="Q222" s="52"/>
     </row>
     <row r="223" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q223" s="53"/>
+      <c r="Q223" s="52"/>
     </row>
     <row r="224" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q224" s="53"/>
+      <c r="Q224" s="52"/>
     </row>
     <row r="225" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q225" s="53"/>
+      <c r="Q225" s="52"/>
     </row>
     <row r="226" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q226" s="53"/>
+      <c r="Q226" s="52"/>
     </row>
     <row r="227" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q227" s="53"/>
+      <c r="Q227" s="52"/>
     </row>
     <row r="228" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q228" s="53"/>
+      <c r="Q228" s="52"/>
     </row>
     <row r="229" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q229" s="53"/>
+      <c r="Q229" s="52"/>
     </row>
     <row r="230" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q230" s="53"/>
+      <c r="Q230" s="52"/>
     </row>
     <row r="231" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q231" s="53"/>
+      <c r="Q231" s="52"/>
     </row>
     <row r="232" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q232" s="53"/>
+      <c r="Q232" s="52"/>
     </row>
     <row r="233" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q233" s="53"/>
+      <c r="Q233" s="52"/>
     </row>
     <row r="234" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q234" s="53"/>
+      <c r="Q234" s="52"/>
     </row>
     <row r="235" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q235" s="53"/>
+      <c r="Q235" s="52"/>
     </row>
     <row r="236" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q236" s="53"/>
+      <c r="Q236" s="52"/>
     </row>
     <row r="237" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q237" s="53"/>
+      <c r="Q237" s="52"/>
     </row>
     <row r="238" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q238" s="53"/>
+      <c r="Q238" s="52"/>
     </row>
     <row r="239" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q239" s="53"/>
+      <c r="Q239" s="52"/>
     </row>
     <row r="240" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q240" s="53"/>
+      <c r="Q240" s="52"/>
     </row>
     <row r="241" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q241" s="53"/>
+      <c r="Q241" s="52"/>
     </row>
     <row r="242" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q242" s="53"/>
+      <c r="Q242" s="52"/>
     </row>
     <row r="243" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q243" s="53"/>
+      <c r="Q243" s="52"/>
     </row>
     <row r="244" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q244" s="53"/>
+      <c r="Q244" s="52"/>
     </row>
     <row r="245" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q245" s="53"/>
+      <c r="Q245" s="52"/>
     </row>
     <row r="246" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q246" s="53"/>
+      <c r="Q246" s="52"/>
     </row>
     <row r="247" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q247" s="53"/>
+      <c r="Q247" s="52"/>
     </row>
     <row r="248" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q248" s="53"/>
+      <c r="Q248" s="52"/>
     </row>
     <row r="249" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q249" s="53"/>
+      <c r="Q249" s="52"/>
     </row>
     <row r="250" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q250" s="53"/>
+      <c r="Q250" s="52"/>
     </row>
     <row r="251" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q251" s="53"/>
+      <c r="Q251" s="52"/>
     </row>
     <row r="252" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q252" s="53"/>
+      <c r="Q252" s="52"/>
     </row>
     <row r="253" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q253" s="53"/>
+      <c r="Q253" s="52"/>
     </row>
     <row r="254" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q254" s="53"/>
+      <c r="Q254" s="52"/>
     </row>
     <row r="255" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q255" s="53"/>
+      <c r="Q255" s="52"/>
     </row>
     <row r="256" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q256" s="53"/>
+      <c r="Q256" s="52"/>
     </row>
     <row r="257" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q257" s="53"/>
+      <c r="Q257" s="52"/>
     </row>
     <row r="258" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q258" s="53"/>
+      <c r="Q258" s="52"/>
     </row>
     <row r="259" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q259" s="53"/>
+      <c r="Q259" s="52"/>
     </row>
     <row r="260" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q260" s="53"/>
+      <c r="Q260" s="52"/>
     </row>
     <row r="261" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q261" s="53"/>
+      <c r="Q261" s="52"/>
     </row>
     <row r="262" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q262" s="53"/>
+      <c r="Q262" s="52"/>
     </row>
     <row r="263" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q263" s="53"/>
+      <c r="Q263" s="52"/>
     </row>
     <row r="264" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q264" s="53"/>
+      <c r="Q264" s="52"/>
     </row>
     <row r="265" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q265" s="53"/>
+      <c r="Q265" s="52"/>
     </row>
     <row r="266" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q266" s="53"/>
+      <c r="Q266" s="52"/>
     </row>
     <row r="267" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q267" s="53"/>
+      <c r="Q267" s="52"/>
     </row>
     <row r="268" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q268" s="53"/>
+      <c r="Q268" s="52"/>
     </row>
     <row r="269" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q269" s="53"/>
+      <c r="Q269" s="52"/>
     </row>
     <row r="270" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q270" s="53"/>
+      <c r="Q270" s="52"/>
     </row>
     <row r="271" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q271" s="53"/>
+      <c r="Q271" s="52"/>
     </row>
     <row r="272" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q272" s="53"/>
+      <c r="Q272" s="52"/>
     </row>
     <row r="273" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q273" s="53"/>
+      <c r="Q273" s="52"/>
     </row>
     <row r="274" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q274" s="53"/>
+      <c r="Q274" s="52"/>
     </row>
     <row r="275" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q275" s="53"/>
+      <c r="Q275" s="52"/>
     </row>
     <row r="276" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q276" s="53"/>
+      <c r="Q276" s="52"/>
     </row>
     <row r="277" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q277" s="53"/>
+      <c r="Q277" s="52"/>
     </row>
     <row r="278" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q278" s="53"/>
+      <c r="Q278" s="52"/>
     </row>
     <row r="279" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q279" s="53"/>
+      <c r="Q279" s="52"/>
     </row>
     <row r="280" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q280" s="53"/>
+      <c r="Q280" s="52"/>
     </row>
     <row r="281" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q281" s="53"/>
+      <c r="Q281" s="52"/>
     </row>
     <row r="282" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q282" s="53"/>
+      <c r="Q282" s="52"/>
     </row>
     <row r="283" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q283" s="53"/>
+      <c r="Q283" s="52"/>
     </row>
     <row r="284" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q284" s="53"/>
+      <c r="Q284" s="52"/>
     </row>
     <row r="285" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q285" s="53"/>
+      <c r="Q285" s="52"/>
     </row>
     <row r="286" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q286" s="53"/>
+      <c r="Q286" s="52"/>
     </row>
     <row r="287" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q287" s="53"/>
+      <c r="Q287" s="52"/>
     </row>
     <row r="288" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q288" s="53"/>
+      <c r="Q288" s="52"/>
     </row>
     <row r="289" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q289" s="53"/>
+      <c r="Q289" s="52"/>
     </row>
     <row r="290" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q290" s="53"/>
+      <c r="Q290" s="52"/>
     </row>
     <row r="291" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q291" s="53"/>
+      <c r="Q291" s="52"/>
     </row>
     <row r="292" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q292" s="53"/>
+      <c r="Q292" s="52"/>
     </row>
     <row r="293" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q293" s="53"/>
+      <c r="Q293" s="52"/>
     </row>
     <row r="294" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q294" s="53"/>
+      <c r="Q294" s="52"/>
     </row>
     <row r="295" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q295" s="53"/>
+      <c r="Q295" s="52"/>
     </row>
     <row r="296" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q296" s="53"/>
+      <c r="Q296" s="52"/>
     </row>
     <row r="297" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q297" s="53"/>
+      <c r="Q297" s="52"/>
     </row>
     <row r="298" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q298" s="53"/>
+      <c r="Q298" s="52"/>
     </row>
     <row r="299" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q299" s="53"/>
+      <c r="Q299" s="52"/>
     </row>
     <row r="300" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q300" s="53"/>
+      <c r="Q300" s="52"/>
     </row>
     <row r="301" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q301" s="53"/>
+      <c r="Q301" s="52"/>
     </row>
     <row r="302" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q302" s="53"/>
+      <c r="Q302" s="52"/>
     </row>
     <row r="303" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q303" s="53"/>
+      <c r="Q303" s="52"/>
     </row>
     <row r="304" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q304" s="53"/>
+      <c r="Q304" s="52"/>
     </row>
     <row r="305" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q305" s="53"/>
+      <c r="Q305" s="52"/>
     </row>
     <row r="306" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q306" s="53"/>
+      <c r="Q306" s="52"/>
     </row>
     <row r="307" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q307" s="53"/>
+      <c r="Q307" s="52"/>
     </row>
     <row r="308" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q308" s="53"/>
+      <c r="Q308" s="52"/>
     </row>
     <row r="309" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q309" s="53"/>
+      <c r="Q309" s="52"/>
     </row>
     <row r="310" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q310" s="53"/>
+      <c r="Q310" s="52"/>
     </row>
     <row r="311" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q311" s="53"/>
+      <c r="Q311" s="52"/>
     </row>
     <row r="312" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q312" s="53"/>
+      <c r="Q312" s="52"/>
     </row>
     <row r="313" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q313" s="53"/>
+      <c r="Q313" s="52"/>
     </row>
     <row r="314" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q314" s="53"/>
+      <c r="Q314" s="52"/>
     </row>
     <row r="315" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q315" s="53"/>
+      <c r="Q315" s="52"/>
     </row>
     <row r="316" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q316" s="53"/>
+      <c r="Q316" s="52"/>
     </row>
     <row r="317" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q317" s="53"/>
+      <c r="Q317" s="52"/>
     </row>
     <row r="318" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q318" s="53"/>
+      <c r="Q318" s="52"/>
     </row>
     <row r="319" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q319" s="53"/>
+      <c r="Q319" s="52"/>
     </row>
     <row r="320" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q320" s="53"/>
+      <c r="Q320" s="52"/>
     </row>
     <row r="321" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q321" s="53"/>
+      <c r="Q321" s="52"/>
     </row>
     <row r="322" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q322" s="53"/>
+      <c r="Q322" s="52"/>
     </row>
     <row r="323" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q323" s="53"/>
+      <c r="Q323" s="52"/>
     </row>
     <row r="324" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q324" s="53"/>
+      <c r="Q324" s="52"/>
     </row>
     <row r="325" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q325" s="53"/>
+      <c r="Q325" s="52"/>
     </row>
     <row r="326" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q326" s="53"/>
+      <c r="Q326" s="52"/>
     </row>
     <row r="327" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q327" s="53"/>
+      <c r="Q327" s="52"/>
     </row>
     <row r="328" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q328" s="53"/>
+      <c r="Q328" s="52"/>
     </row>
     <row r="329" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q329" s="53"/>
+      <c r="Q329" s="52"/>
     </row>
     <row r="330" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q330" s="53"/>
+      <c r="Q330" s="52"/>
     </row>
     <row r="331" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q331" s="53"/>
+      <c r="Q331" s="52"/>
     </row>
     <row r="332" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q332" s="53"/>
+      <c r="Q332" s="52"/>
     </row>
     <row r="333" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q333" s="53"/>
+      <c r="Q333" s="52"/>
     </row>
     <row r="334" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q334" s="53"/>
+      <c r="Q334" s="52"/>
     </row>
     <row r="335" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q335" s="53"/>
+      <c r="Q335" s="52"/>
     </row>
     <row r="336" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q336" s="53"/>
+      <c r="Q336" s="52"/>
     </row>
     <row r="337" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q337" s="53"/>
+      <c r="Q337" s="52"/>
     </row>
     <row r="338" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q338" s="53"/>
+      <c r="Q338" s="52"/>
     </row>
     <row r="339" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q339" s="53"/>
+      <c r="Q339" s="52"/>
     </row>
     <row r="340" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q340" s="53"/>
+      <c r="Q340" s="52"/>
     </row>
     <row r="341" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q341" s="53"/>
+      <c r="Q341" s="52"/>
     </row>
     <row r="342" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q342" s="53"/>
+      <c r="Q342" s="52"/>
     </row>
     <row r="343" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q343" s="53"/>
+      <c r="Q343" s="52"/>
     </row>
     <row r="344" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q344" s="53"/>
+      <c r="Q344" s="52"/>
     </row>
     <row r="345" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q345" s="53"/>
+      <c r="Q345" s="52"/>
     </row>
     <row r="346" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q346" s="53"/>
+      <c r="Q346" s="52"/>
     </row>
     <row r="347" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q347" s="53"/>
+      <c r="Q347" s="52"/>
     </row>
     <row r="348" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q348" s="53"/>
-    </row>
-    <row r="349" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q349" s="53"/>
-    </row>
-    <row r="350" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q350" s="53"/>
-    </row>
-    <row r="351" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q351" s="53"/>
-    </row>
-    <row r="352" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q352" s="53"/>
+      <c r="Q348" s="52"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="9">
-    <mergeCell ref="Q197:Q235"/>
-    <mergeCell ref="Q236:Q274"/>
-    <mergeCell ref="Q275:Q313"/>
-    <mergeCell ref="Q314:Q352"/>
-    <mergeCell ref="Q2:Q40"/>
-    <mergeCell ref="Q41:Q79"/>
-    <mergeCell ref="Q80:Q118"/>
-    <mergeCell ref="Q119:Q157"/>
-    <mergeCell ref="Q158:Q196"/>
+    <mergeCell ref="Q193:Q231"/>
+    <mergeCell ref="Q232:Q270"/>
+    <mergeCell ref="Q271:Q309"/>
+    <mergeCell ref="Q310:Q348"/>
+    <mergeCell ref="Q2:Q36"/>
+    <mergeCell ref="Q37:Q75"/>
+    <mergeCell ref="Q76:Q114"/>
+    <mergeCell ref="Q115:Q153"/>
+    <mergeCell ref="Q154:Q192"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{3E725189-129F-4A0E-9C9E-8D53BDB20D25}">
@@ -3293,25 +3247,25 @@
           <x14:formula1>
             <xm:f>Legenda!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F36</xm:sqref>
+          <xm:sqref>F2:F32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF4600F9-1B22-4140-BE77-4B40E333F977}">
           <x14:formula1>
             <xm:f>Legenda!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P40</xm:sqref>
+          <xm:sqref>P2:P36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A92D978-0C5F-4970-ADF0-B1755101DB44}">
           <x14:formula1>
             <xm:f>Legenda!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K342</xm:sqref>
+          <xm:sqref>K2:K338</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F9BC5F18-EA35-457F-9A5A-7169555D4642}">
           <x14:formula1>
             <xm:f>Legenda!$F$2:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C155</xm:sqref>
+          <xm:sqref>C2:C151</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B1DD0B7-F746-4765-88DD-5DD58881C8B9}">
           <x14:formula1>
@@ -3329,7 +3283,7 @@
           <x14:formula1>
             <xm:f>Legenda!$B$3:$B$24</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E26</xm:sqref>
+          <xm:sqref>E2:E22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08DBD120-7254-44CC-AC38-AE766721312E}">
           <x14:formula1>
@@ -3351,148 +3305,148 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.296875" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" customWidth="1"/>
-    <col min="5" max="5" width="24.296875" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3510,42 +3464,42 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" customWidth="1"/>
-    <col min="8" max="8" width="48.09765625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3554,25 +3508,25 @@
       <c r="B2">
         <v>2022</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3581,25 +3535,25 @@
       <c r="B3">
         <v>2021</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3608,13 +3562,13 @@
       <c r="B4">
         <v>2020</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3625,13 +3579,13 @@
       <c r="B5">
         <v>2019</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3642,7 +3596,7 @@
       <c r="B6">
         <v>2018</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G6">
@@ -3656,7 +3610,7 @@
       <c r="B7">
         <v>2017</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3683,8 +3637,8 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12">
         <v>2012</v>
       </c>
